--- a/labs/Lab_13_python_oop/solution/my_payments_analytics_2023_12_26.xlsx
+++ b/labs/Lab_13_python_oop/solution/my_payments_analytics_2023_12_26.xlsx
@@ -296,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,16 +308,20 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -382,13 +386,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,172 +747,172 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -933,82 +940,82 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>5</v>
       </c>
     </row>

--- a/labs/Lab_13_python_oop/solution/my_payments_analytics_2023_12_26.xlsx
+++ b/labs/Lab_13_python_oop/solution/my_payments_analytics_2023_12_26.xlsx
@@ -395,7 +395,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,7 +697,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="21" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="47" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -943,7 +945,7 @@
       <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>11</v>
       </c>
     </row>
@@ -951,7 +953,7 @@
       <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>6</v>
       </c>
     </row>
@@ -959,7 +961,7 @@
       <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>6</v>
       </c>
     </row>
@@ -967,7 +969,7 @@
       <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>6</v>
       </c>
     </row>
@@ -975,7 +977,7 @@
       <c r="B28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>6</v>
       </c>
     </row>
@@ -983,7 +985,7 @@
       <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>6</v>
       </c>
     </row>
@@ -991,7 +993,7 @@
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>5</v>
       </c>
     </row>
@@ -999,7 +1001,7 @@
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>5</v>
       </c>
     </row>
@@ -1007,7 +1009,7 @@
       <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>5</v>
       </c>
     </row>
@@ -1015,7 +1017,7 @@
       <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>5</v>
       </c>
     </row>
@@ -1053,13 +1055,13 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C38">
         <v>526734.7799999999</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E38">
@@ -1067,13 +1069,13 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C39">
         <v>423521.0999999999</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>83</v>
       </c>
       <c r="E39">
@@ -1081,13 +1083,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C40">
         <v>351244.21</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E40">
@@ -1095,13 +1097,13 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C41">
         <v>333525.8</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E41">
@@ -1109,13 +1111,13 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C42">
         <v>316960.68</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E42">
@@ -1123,13 +1125,13 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C43">
         <v>305718.2</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E43">
@@ -1137,13 +1139,13 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C44">
         <v>303698.07</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E44">
@@ -1151,13 +1153,13 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C45">
         <v>290505.5700000001</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E45">
@@ -1165,13 +1167,13 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C46">
         <v>288709.75</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E46">
@@ -1179,13 +1181,13 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C47">
         <v>286924.16</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E47">

--- a/labs/Lab_13_python_oop/solution/my_payments_analytics_2023_12_26.xlsx
+++ b/labs/Lab_13_python_oop/solution/my_payments_analytics_2023_12_26.xlsx
@@ -296,6 +296,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -386,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -395,6 +398,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -945,7 +951,7 @@
       <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>11</v>
       </c>
     </row>
@@ -953,7 +959,7 @@
       <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>6</v>
       </c>
     </row>
@@ -961,7 +967,7 @@
       <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>6</v>
       </c>
     </row>
@@ -969,7 +975,7 @@
       <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>6</v>
       </c>
     </row>
@@ -977,7 +983,7 @@
       <c r="B28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>6</v>
       </c>
     </row>
@@ -985,7 +991,7 @@
       <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>6</v>
       </c>
     </row>
@@ -993,7 +999,7 @@
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1001,7 +1007,7 @@
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1009,7 +1015,7 @@
       <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1017,7 +1023,7 @@
       <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1058,13 +1064,13 @@
       <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>526734.7799999999</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>-423446.32</v>
       </c>
     </row>
@@ -1072,13 +1078,13 @@
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>423521.0999999999</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <v>-366545.03</v>
       </c>
     </row>
@@ -1086,13 +1092,13 @@
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>351244.21</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>-364434.07</v>
       </c>
     </row>
@@ -1100,13 +1106,13 @@
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>333525.8</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>-351158.1400000001</v>
       </c>
     </row>
@@ -1114,13 +1120,13 @@
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>316960.68</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>-348828.95</v>
       </c>
     </row>
@@ -1128,13 +1134,13 @@
       <c r="B43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>305718.2</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>-344964.3099999999</v>
       </c>
     </row>
@@ -1142,13 +1148,13 @@
       <c r="B44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>303698.07</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>-343347.1800000001</v>
       </c>
     </row>
@@ -1156,13 +1162,13 @@
       <c r="B45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>290505.5700000001</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>-335696.36</v>
       </c>
     </row>
@@ -1170,13 +1176,13 @@
       <c r="B46" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>288709.75</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>-335224.09</v>
       </c>
     </row>
@@ -1184,13 +1190,13 @@
       <c r="B47" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <v>286924.16</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <v>-331107.12</v>
       </c>
     </row>

--- a/labs/Lab_13_python_oop/solution/my_payments_analytics_2023_12_26.xlsx
+++ b/labs/Lab_13_python_oop/solution/my_payments_analytics_2023_12_26.xlsx
@@ -371,16 +371,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="dotted">
         <color rgb="FF000080"/>
       </left>
-      <right style="hair">
+      <right style="dotted">
         <color rgb="FF000080"/>
       </right>
-      <top style="hair">
+      <top style="dotted">
         <color rgb="FF000080"/>
       </top>
-      <bottom style="hair">
+      <bottom style="dotted">
         <color rgb="FF000080"/>
       </bottom>
       <diagonal/>
